--- a/Assignment2/Assignment_2_Data_and_Saran.xlsx
+++ b/Assignment2/Assignment_2_Data_and_Saran.xlsx
@@ -115,13 +115,13 @@
     <t>While reconstructing, I used the same Bins as used in original Histogram</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Input data set had few samples (168 samples) and when we try to map it in a 2D Histogram there were many empty bins. "The curse of dimension" was a small factor in it. 
+    <t xml:space="preserve">1. Input data set has very few samples (168 samples) and when I try to map it in a 2D Histogram there were many empty bins (can't do much about it). This being a 2D feature data,"The curse of dimension" was a small factor in having more empty bins. 
 2. I used bin count as 8 (from Sturge's rule). But, trying other bin sizes (less or more) didn't help much in this case. Data set was too low to increase the bin count. Reducing the bin count didn't change the outcome by a big degree. Maybe, Struge was right after all :-)
-3. On Covariance matrix, the covariance value in diagonal is positive value (+1.6517 for Female and 1.801 for Male). This means, Height and Handspan have a positive correlation. Meaning, when height increases, the handspan also increases. 
-4. For Query data with given height and handspan, it didn't perform that well with Histograms (many empty bins). It appears to have performed better with Guassian model, as it was able to give some probability-density for the query, which might be a better judge give a new query. As seen in previous Assignment-1, with lesser data, it appears like Guassian performs better.
+3. On Covariance matrix, the covariance value in diagonal is positive value (+1.6517 for Female and 1.801 for Male). This means, Height and Handspan have a positive correlation. Meaning, when height increases, the handspan also tend to increases. Variance of Female and Male Height is 7+ and its Handspan is 2+, meaning, Height-axis has a bigger spread than Handspan-axis.
+4. For Query data with given height and handspan, it didn't perform that well with Histograms (many empty bins). It appears to have performed better with Guassian model, as it was able to give some probability-density for the query, which might be a better judgefor a given new query. As seen in previous Assignment-1, with lesser data, it appears like Guassian performs better.
 4. Reconstruction of Histogram from Guassian parameters
    - It was an interesting exercise, where I had to choose the right method to map the Histogram bins, to appropriate Guassian query height+handspan.
-   - In Histogram, every bin has a height-bin-width and hand-span-bin-width. To map this accordingly, made the center of the bin for height and handspan as the Guassian parameter to find the right Probability-density.
+   - In Histogram, every dimension has its own bin-width, namely, height-bin-width and handspan-bin-width. To map this accordingly, made the center of each bin for height and handspan as the Guassian parameter to find the right Probability-density.
    - With Probability density, when you multiple Height-bin-width and Handspan-bin-width, it give the Volume of the 3D Bar which represents the Bin in Histogram.
    - Multiply the above value with Sample size (Total sample of female or male) and you get the Count of female or male in that particular Bin.
    - Repeate the above process by running a query for the center of each bin (height and handspan)
@@ -136,8 +136,8 @@
        queryHeight = MIN_HEIGHT + (r * HEIGHT_BIN_WIDTH) + (HEIGHT_BIN_WIDTH/2)
        querySpan   = MIN_SPAN + (c * SPAN_BIN_WIDTH) + (SPAN_BIN_WIDTH / 2)
        // Reconstruct histogram using Guassian params for each bin
-       GUASS_HIST_FEMALE[r,c] = NUM_FEMALE * HEIGHT_BIN_WIDTH * SPAN_BIN_WIDTH * getPDF([queryHeight, querySpan],        [MEAN_HEIGHT_FEMALE, MEAN_SPAN_FEMALE], INV_COV_FEMALE, DET_COV_FEMALE)
-       GUASS_HIST_MALE[r, c] = NUM_MALE * HEIGHT_BIN_WIDTH * SPAN_BIN_WIDTH * getPDF([queryHeight, querySpan], [       MEAN_HEIGHT_MALE, MEAN_SPAN_MALE], INV_COV_MALE, DET_COV_MALE)
+       GUASS_HIST_FEMALE[r,c] = NUM_FEMALE * HEIGHT_BIN_WIDTH * SPAN_BIN_WIDTH * getPDF([queryHeight, querySpan],  [MEAN_HEIGHT_FEMALE, MEAN_SPAN_FEMALE], INV_COV_FEMALE, DET_COV_FEMALE)
+       GUASS_HIST_MALE[r, c] = NUM_MALE * HEIGHT_BIN_WIDTH * SPAN_BIN_WIDTH * getPDF([queryHeight, querySpan], [ MEAN_HEIGHT_MALE, MEAN_SPAN_MALE], INV_COV_MALE, DET_COV_MALE)
 </t>
   </si>
 </sst>
@@ -5486,7 +5486,7 @@
   <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8599,7 +8599,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
